--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4732,480 +4732,384 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>blackassign0091</t>
+          <t>blackassign0092</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-2/</t>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-3/</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.02702702629656686</v>
+        <v>-0.333333327160494</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03330333030305731</v>
+        <v>0.0408163264997609</v>
       </c>
       <c r="G90" t="n">
-        <v>29.23684210526316</v>
+        <v>22.42372881355932</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3915391539153915</v>
+        <v>0.3749055177626606</v>
       </c>
       <c r="I90" t="n">
-        <v>29.86862673926195</v>
+        <v>23.92467195188628</v>
       </c>
       <c r="J90" t="n">
-        <v>29.23684210526316</v>
+        <v>22.42372881355932</v>
       </c>
       <c r="K90" t="n">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="L90" t="n">
-        <v>1111</v>
+        <v>1323</v>
       </c>
       <c r="M90" t="n">
-        <v>1.634563456345635</v>
+        <v>1.520786092214664</v>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>blackassign0092</t>
+          <t>blackassign0094</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-3/</t>
+          <t>https://insights.blackcoffer.com/gaming-disorder-and-effects-of-gaming-on-health/</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D91" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.333333327160494</v>
+        <v>-0.1944444417438272</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0408163264997609</v>
+        <v>0.06101694910083309</v>
       </c>
       <c r="G91" t="n">
-        <v>22.42372881355932</v>
+        <v>18.4375</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3749055177626606</v>
+        <v>0.3533898305084746</v>
       </c>
       <c r="I91" t="n">
-        <v>23.92467195188628</v>
+        <v>20.86930455635492</v>
       </c>
       <c r="J91" t="n">
-        <v>22.42372881355932</v>
+        <v>18.4375</v>
       </c>
       <c r="K91" t="n">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="L91" t="n">
-        <v>1323</v>
+        <v>1180</v>
       </c>
       <c r="M91" t="n">
-        <v>1.520786092214664</v>
+        <v>1.527118644067797</v>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>blackassign0093</t>
+          <t>blackassign0095</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/travel-and-tourism-outlook/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation/</t>
         </is>
       </c>
       <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>23</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.5862068763376939</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.04489164079738136</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17.94444444444444</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3885448916408669</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18.47348384240814</v>
+      </c>
+      <c r="J92" t="n">
+        <v>17.94444444444444</v>
+      </c>
+      <c r="K92" t="n">
+        <v>251</v>
+      </c>
+      <c r="L92" t="n">
+        <v>646</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.51702786377709</v>
+      </c>
+      <c r="N92" t="n">
         <v>4</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.1428571224489825</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.03553299474348734</v>
-      </c>
-      <c r="G92" t="n">
-        <v>17.90909090909091</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.299492385786802</v>
-      </c>
-      <c r="I92" t="n">
-        <v>23.91926040061633</v>
-      </c>
-      <c r="J92" t="n">
-        <v>17.90909090909091</v>
-      </c>
-      <c r="K92" t="n">
-        <v>59</v>
-      </c>
-      <c r="L92" t="n">
-        <v>197</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.416243654822335</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>blackassign0094</t>
+          <t>blackassign0096</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/gaming-disorder-and-effects-of-gaming-on-health/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation-2/</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.1944444417438272</v>
+        <v>-0.3103448222354341</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06101694910083309</v>
+        <v>0.05110132154087989</v>
       </c>
       <c r="G93" t="n">
-        <v>18.4375</v>
+        <v>22.7</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3533898305084746</v>
+        <v>0.4176211453744493</v>
       </c>
       <c r="I93" t="n">
-        <v>20.86930455635492</v>
+        <v>21.74219409282701</v>
       </c>
       <c r="J93" t="n">
-        <v>18.4375</v>
+        <v>22.7</v>
       </c>
       <c r="K93" t="n">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="L93" t="n">
-        <v>1180</v>
+        <v>1135</v>
       </c>
       <c r="M93" t="n">
-        <v>1.527118644067797</v>
+        <v>1.669603524229075</v>
       </c>
       <c r="N93" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>blackassign0095</t>
+          <t>blackassign0097</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-office-space-and-co-working-industries/</t>
         </is>
       </c>
       <c r="C94" t="n">
+        <v>14</v>
+      </c>
+      <c r="D94" t="n">
+        <v>27</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.3170731629982155</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.03700361007490648</v>
+      </c>
+      <c r="G94" t="n">
+        <v>28.41025641025641</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3366425992779783</v>
+      </c>
+      <c r="I94" t="n">
+        <v>33.75717330033684</v>
+      </c>
+      <c r="J94" t="n">
+        <v>28.41025641025641</v>
+      </c>
+      <c r="K94" t="n">
+        <v>373</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1108</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.49187725631769</v>
+      </c>
+      <c r="N94" t="n">
         <v>6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>23</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-0.5862068763376939</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.04489164079738136</v>
-      </c>
-      <c r="G94" t="n">
-        <v>17.94444444444444</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.3885448916408669</v>
-      </c>
-      <c r="I94" t="n">
-        <v>18.47348384240814</v>
-      </c>
-      <c r="J94" t="n">
-        <v>17.94444444444444</v>
-      </c>
-      <c r="K94" t="n">
-        <v>251</v>
-      </c>
-      <c r="L94" t="n">
-        <v>646</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.51702786377709</v>
-      </c>
-      <c r="N94" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>blackassign0096</t>
+          <t>blackassign0098</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation-2/</t>
+          <t>https://insights.blackcoffer.com/contribution-of-handicrafts-visual-arts-literature-in-the-indian-economy/</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.3103448222354341</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05110132154087989</v>
+        <v>0.02005012526303227</v>
       </c>
       <c r="G95" t="n">
-        <v>22.7</v>
+        <v>33.25</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4176211453744493</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="I95" t="n">
-        <v>21.74219409282701</v>
+        <v>29.9813559322034</v>
       </c>
       <c r="J95" t="n">
-        <v>22.7</v>
+        <v>33.25</v>
       </c>
       <c r="K95" t="n">
-        <v>474</v>
+        <v>177</v>
       </c>
       <c r="L95" t="n">
-        <v>1135</v>
+        <v>399</v>
       </c>
       <c r="M95" t="n">
-        <v>1.669603524229075</v>
+        <v>1.654135338345865</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>blackassign0097</t>
+          <t>blackassign0099</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-office-space-and-co-working-industries/</t>
+          <t>https://insights.blackcoffer.com/how-covid-19-is-impacting-payment-preferences/</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.3170731629982155</v>
+        <v>0.5999999600000027</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03700361007490648</v>
+        <v>0.02407704651030972</v>
       </c>
       <c r="G96" t="n">
-        <v>28.41025641025641</v>
+        <v>19.46875</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3366425992779783</v>
+        <v>0.3579454253611557</v>
       </c>
       <c r="I96" t="n">
-        <v>33.75717330033684</v>
+        <v>21.75610986547085</v>
       </c>
       <c r="J96" t="n">
-        <v>28.41025641025641</v>
+        <v>19.46875</v>
       </c>
       <c r="K96" t="n">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="L96" t="n">
-        <v>1108</v>
+        <v>623</v>
       </c>
       <c r="M96" t="n">
-        <v>1.49187725631769</v>
+        <v>1.401284109149278</v>
       </c>
       <c r="N96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>blackassign0098</t>
+          <t>blackassign0100</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/contribution-of-handicrafts-visual-arts-literature-in-the-indian-economy/</t>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-2/</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2499999687500039</v>
+        <v>-0.3333333282828284</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02005012526303227</v>
+        <v>0.0618556700451212</v>
       </c>
       <c r="G97" t="n">
-        <v>33.25</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>0.443609022556391</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="I97" t="n">
-        <v>29.9813559322034</v>
+        <v>33.0140350877193</v>
       </c>
       <c r="J97" t="n">
-        <v>33.25</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="K97" t="n">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="L97" t="n">
-        <v>399</v>
+        <v>1067</v>
       </c>
       <c r="M97" t="n">
-        <v>1.654135338345865</v>
+        <v>1.577319587628866</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>blackassign0099</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://insights.blackcoffer.com/how-covid-19-is-impacting-payment-preferences/</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>12</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.5999999600000027</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.02407704651030972</v>
-      </c>
-      <c r="G98" t="n">
-        <v>19.46875</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.3579454253611557</v>
-      </c>
-      <c r="I98" t="n">
-        <v>21.75610986547085</v>
-      </c>
-      <c r="J98" t="n">
-        <v>19.46875</v>
-      </c>
-      <c r="K98" t="n">
-        <v>223</v>
-      </c>
-      <c r="L98" t="n">
-        <v>623</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.401284109149278</v>
-      </c>
-      <c r="N98" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>blackassign0100</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-2/</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>22</v>
-      </c>
-      <c r="D99" t="n">
-        <v>44</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-0.3333333282828284</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0618556700451212</v>
-      </c>
-      <c r="G99" t="n">
-        <v>32.33333333333334</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.3917525773195876</v>
-      </c>
-      <c r="I99" t="n">
-        <v>33.0140350877193</v>
-      </c>
-      <c r="J99" t="n">
-        <v>32.33333333333334</v>
-      </c>
-      <c r="K99" t="n">
-        <v>418</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1067</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.577319587628866</v>
-      </c>
-      <c r="N99" t="n">
         <v>3</v>
       </c>
     </row>
